--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Inventario.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Inventario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/SpaOnline/ModeloDominioEnriquecido/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{9676E325-C85E-4257-A0EF-CEADE506081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{455837DE-F4EF-4AB3-A378-8A74E820811D}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{9676E325-C85E-4257-A0EF-CEADE506081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D37B911D-FFD5-45FA-B0AF-FFE783E6CF46}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -251,7 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,12 +305,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -702,6 +696,63 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -723,65 +774,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1173,7 +1167,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,9 +1189,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,13 +1220,13 @@
       <c r="A2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="53" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1243,10 +1237,10 @@
       <c r="B3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="53" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1265,7 +1259,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C13" sqref="C13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,69 +1289,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="55" t="str">
+      <c r="B3" s="74" t="str">
         <f>'Listado Objetos de Dominio'!$B$2</f>
         <v>Objeto de dominio que contiene la informacion del inventario, según el producto y sucursal</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1512,11 +1506,11 @@
       <c r="T6" s="31"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -1541,44 +1535,44 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60" t="s">
+      <c r="B13" s="66"/>
+      <c r="C13" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60" t="s">
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60" t="s">
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60" t="s">
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60" t="s">
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="63"/>
+      <c r="R13" s="67"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -1591,12 +1585,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -1611,88 +1605,88 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="46"/>
       <c r="H16" s="44"/>
       <c r="I16" s="45"/>
       <c r="J16" s="39"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
       <c r="O16" s="23"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="27"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="42"/>
       <c r="H17" s="40"/>
       <c r="I17" s="41"/>
       <c r="J17" s="43"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
       <c r="O17" s="28"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="48"/>
       <c r="H18" s="49"/>
       <c r="I18" s="47"/>
       <c r="J18" s="48"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
       <c r="O18" s="31"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="32"/>
@@ -1700,6 +1694,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="K18:N18"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:F18"/>
@@ -1709,20 +1717,6 @@
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:F16"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -1746,7 +1740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
@@ -1778,70 +1772,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="54" t="str">
+      <c r="B2" s="73" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>ProductoInventario</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="55" t="str">
+      <c r="B3" s="74" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v xml:space="preserve">Objeto de dominio que referencia los productos que tiene el inventario </v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2025,11 +2019,11 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -2048,44 +2042,44 @@
       <c r="C12" s="38"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60" t="s">
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60" t="s">
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60" t="s">
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60" t="s">
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="63"/>
+      <c r="R14" s="67"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="19" t="s">
         <v>28</v>
       </c>
@@ -2098,12 +2092,12 @@
       <c r="J15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="62" t="s">
+      <c r="K15" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
       <c r="O15" s="19" t="s">
         <v>30</v>
       </c>
@@ -2118,88 +2112,88 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="26"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="46"/>
       <c r="H17" s="44"/>
       <c r="I17" s="45"/>
       <c r="J17" s="39"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
       <c r="O17" s="23"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="27"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="42"/>
       <c r="H18" s="40"/>
       <c r="I18" s="41"/>
       <c r="J18" s="43"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
       <c r="O18" s="28"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="48"/>
       <c r="H19" s="49"/>
       <c r="I19" s="47"/>
       <c r="J19" s="48"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
       <c r="O19" s="31"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
@@ -2207,6 +2201,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="K17:N17"/>
@@ -2219,17 +2224,6 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:N14"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -2249,12 +2243,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2402,15 +2393,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2434,10 +2429,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Inventario.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Inventario.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/SpaOnline/ModeloDominioEnriquecido/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{9676E325-C85E-4257-A0EF-CEADE506081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D37B911D-FFD5-45FA-B0AF-FFE783E6CF46}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="8_{9676E325-C85E-4257-A0EF-CEADE506081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4245F0A-8A0D-4303-8A9C-29EAAC513C41}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
     <sheet name="Listado Objetos de Dominio" sheetId="67" r:id="rId2"/>
     <sheet name="Inventario" sheetId="66" r:id="rId3"/>
-    <sheet name="Producto" sheetId="24" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$1:$B$3</definedName>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
   <si>
     <t>Nombre</t>
   </si>
@@ -163,18 +162,6 @@
     <t>¿Qué hago?</t>
   </si>
   <si>
-    <t>Reponsabilidad 1</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 2</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 3</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 4</t>
-  </si>
-  <si>
     <t>Inventario</t>
   </si>
   <si>
@@ -184,9 +171,6 @@
     <t xml:space="preserve">Objeto de dominio que referencia los productos que tiene el inventario </t>
   </si>
   <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
     <t>TipoObjetoDominio</t>
   </si>
   <si>
@@ -226,25 +210,157 @@
     <t>No tiene numeros</t>
   </si>
   <si>
-    <t>Solo numeros, sin caracteres especiales</t>
-  </si>
-  <si>
-    <t>No tiene letras</t>
-  </si>
-  <si>
     <t>Atributo que contiene un identificador que hace unico a cada Inventario</t>
   </si>
   <si>
     <t>Atributo que contiene el nombre que identifica a un inventario</t>
   </si>
   <si>
-    <t>Atributo que contiene el numero de la cantidad de productos en inventario</t>
-  </si>
-  <si>
     <t>Nombre Inventario</t>
   </si>
   <si>
     <t>No es posible tener más de un pais con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Crear Inventario</t>
+  </si>
+  <si>
+    <t>Modificar Inventario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultar inventario </t>
+  </si>
+  <si>
+    <t>Pol-Inventario-001</t>
+  </si>
+  <si>
+    <t>Pol-Inventario-002</t>
+  </si>
+  <si>
+    <t>Pol-Inventario-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe de exisitir una sucursal a la cual debe estar asociado el inventario
+ </t>
+  </si>
+  <si>
+    <t>Parametro que contiene la información de los datos requeridos para crear un inventario nuevo</t>
+  </si>
+  <si>
+    <t>No debe existir otro inventario con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un inventario  con ese mismo nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los datos del nuevo inventario deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango
+ </t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que los valores que se estan intentando ingresar son incorrectos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se genera una excepcion diciendo que se debe vincular una sucursal a la cual pertenece el inventario </t>
+  </si>
+  <si>
+    <t>Cancelar la  creacion del inventario</t>
+  </si>
+  <si>
+    <t>Cancelar la modificacion del inventario</t>
+  </si>
+  <si>
+    <t>Cancelar la consulta del inventario</t>
+  </si>
+  <si>
+    <t>Cancelar la eliminacion del inventario</t>
+  </si>
+  <si>
+    <t>Eliminar inventario</t>
+  </si>
+  <si>
+    <t>Pol-Inventario-005</t>
+  </si>
+  <si>
+    <t>Pol-Inventario-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe existir el inventario que se esta modificando </t>
+  </si>
+  <si>
+    <t>Pol-Inventario-004</t>
+  </si>
+  <si>
+    <t>Si se envía parametros de consulta se deben de ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango</t>
+  </si>
+  <si>
+    <t>El usuario debe estar permitido para consultar</t>
+  </si>
+  <si>
+    <t>Pol-Inventario-008</t>
+  </si>
+  <si>
+    <t>Pol-Inventario-007</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de modificacion de un inventario de la empresa que ya se encuentra creado</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de creacion de un inventario de la empresa para diferenciar la pertenencia de cada sucursal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parametro que contiene la información de los datos requeridos para modificar un inventario </t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Objeto</t>
+  </si>
+  <si>
+    <t>Retorna un valor de verdad si se pudo crear o no el inventario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retorna los nuevos valores del inventario que se modifico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No debe existir otro Inventario, a excepcion de que sea el mismo Inventario que se esta modificando
+ </t>
+  </si>
+  <si>
+    <t>Se genera una excepcion de que ya existe un inventario con ese nombre</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que no se puede modificar algo que no existe</t>
+  </si>
+  <si>
+    <t>Parametro que contiene el nombre del inventario que se va a buscar en la base de datos</t>
+  </si>
+  <si>
+    <t>Retorna los valores del inventario con el cual se consulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se genera una excepcion diciendo que el usuario no tiene permiso para hacer esto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta responsabilidad implica el proceso de consulta de los inventarios que ya existen </t>
+  </si>
+  <si>
+    <t>esta responsabilidad implica el proceso de eliminar un inventario de una empresa</t>
+  </si>
+  <si>
+    <t>Parametro que contiene el nombre del inventario que se quiere eliminar</t>
+  </si>
+  <si>
+    <t>Retorna un valor de verdad según si la operación es exitosa o no</t>
+  </si>
+  <si>
+    <t>Que el inventario exista y no tenga productos asociados o sucursales</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que esta asociado a algun producto o sucursal</t>
   </si>
 </sst>
 </file>
@@ -369,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -526,6 +642,169 @@
     <border>
       <left/>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -540,7 +819,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -555,9 +834,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -598,12 +874,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,27 +888,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -654,39 +915,12 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,6 +933,42 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -711,70 +981,235 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,9 +1624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,63 +1638,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>42</v>
+      <c r="C1" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>44</v>
+      <c r="D2" s="38" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>44</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{C63AC93C-FDB8-4073-AAD4-2C19D886E6E6}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{D76AF629-37EA-43D1-BEDE-2F8FD10782DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:F14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,17 +1706,17 @@
     <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="94.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="69.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="53.5703125" style="1" customWidth="1"/>
     <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1289,142 +1725,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
+      <c r="B2" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="74" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Listado Objetos de Dominio'!$B$2</f>
         <v>Objeto de dominio que contiene la informacion del inventario, según el producto y sucursal</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="37" t="str">
+      <c r="Q4" s="31" t="str">
         <f>A15</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
-        <f>A16</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
-        <f>A17</f>
-        <v>Reponsabilidad 3</v>
+        <v>Crear Inventario</v>
+      </c>
+      <c r="R4" s="29" t="str">
+        <f>A18</f>
+        <v>Modificar Inventario</v>
+      </c>
+      <c r="S4" s="30" t="str">
+        <f>A21</f>
+        <v xml:space="preserve">Consultar inventario </v>
       </c>
       <c r="T4" s="2" t="str">
-        <f>A18</f>
-        <v>Reponsabilidad 4</v>
+        <f>A23</f>
+        <v>Eliminar inventario</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>47</v>
+      <c r="A5" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1435,36 +1871,36 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="31"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="26"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1476,224 +1912,463 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="J6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="31"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="26"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="77"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="51" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="38" t="s">
+      <c r="A11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66" t="s">
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66" t="s">
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66" t="s">
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="67"/>
+      <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="19" t="s">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="68" t="s">
+      <c r="K14" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="19" t="s">
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="19" t="s">
+      <c r="P14" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Q14" s="19" t="s">
+      <c r="Q14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="R14" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+    <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="26"/>
+      <c r="H15" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="R15" s="82" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="27"/>
+    <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="R16" s="83"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="60"/>
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="61"/>
       <c r="L17" s="62"/>
       <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="30"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="R17" s="84"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="33"/>
+    <row r="18" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="106"/>
+      <c r="C18" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="R18" s="82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="107"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="R19" s="83"/>
+    </row>
+    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="109"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="R20" s="84"/>
+    </row>
+    <row r="21" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="112"/>
+      <c r="C21" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="123" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="R21" s="113" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q22" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="R22" s="116"/>
+    </row>
+    <row r="23" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="R23" s="85" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="38">
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="K18:N20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="C18:F20"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:N22"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="K15:N17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="R15:R17"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -1703,549 +2378,29 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
-    <hyperlink ref="H18" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
+    <hyperlink ref="H23" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
     <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C31578C6-097C-48B5-85BE-E2B5695507BB}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{12E63051-0357-4C9D-ABE2-AAC9F4D1077D}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{1EEF2DB2-A99F-4C59-8304-4835FA7407E0}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{821E0C47-3835-4659-B0FA-56687A0DE151}"/>
-    <hyperlink ref="A15:B15" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{22905DC7-C781-450C-BA99-3B5AF5CDD56E}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{98480B8D-5789-4D0D-9A12-1FCE9FA5B81E}"/>
+    <hyperlink ref="A23:B23" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{98480B8D-5789-4D0D-9A12-1FCE9FA5B81E}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{1BF344DA-00DC-4E3D-9686-31B0C99A39F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
-  <dimension ref="A1:T19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="94.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="73" t="str">
-        <f>'Listado Objetos de Dominio'!$A$3</f>
-        <v>ProductoInventario</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="74" t="str">
-        <f>'Listado Objetos de Dominio'!$B$3</f>
-        <v xml:space="preserve">Objeto de dominio que referencia los productos que tiene el inventario </v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="37" t="str">
-        <f>A16</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
-        <f>A17</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
-        <f>A18</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="T4" s="2" t="str">
-        <f>A19</f>
-        <v>Reponsabilidad 4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="31"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="31"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="31"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="38"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="R14" s="67"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R15" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="26"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="27"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="O14:P14"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
-    <hyperlink ref="H19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{25C12BD1-D4FF-4A66-A1D2-16B9D6F696EA}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 1'!A17" display="'Objeto Dominio 1'!A17" xr:uid="{A2870EFD-A505-493E-87E8-2E1411795896}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 1'!A18" display="'Objeto Dominio 1'!A18" xr:uid="{255B7490-DDA4-4BEF-98CA-B99448352900}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 1'!A19" display="'Objeto Dominio 1'!A19" xr:uid="{706882A1-07E0-4948-8B9C-8861D2CC8FE3}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 1'!R4" display="Reponsabilidad 2" xr:uid="{B337A699-0CE0-4F38-BF55-7E8C0A137EBF}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio 1'!Q4" display="Reponsabilidad 1" xr:uid="{D0D0BC22-347D-4800-B48E-FEA2C5DF8B46}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 1'!T4" display="Reponsabilidad 4" xr:uid="{715E6582-9CD3-4DEC-9198-02819694A183}"/>
-    <hyperlink ref="Q4" location="'Objeto Dominio 1'!A16" display="'Objeto Dominio 1'!A16" xr:uid="{B7DC66C7-CAF0-414F-9819-29E983398B1B}"/>
-    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EDAD5212-8D62-4F21-A63F-5CE874FBE78D}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 1'!S4" display="Reponsabilidad 3" xr:uid="{DBE4323C-BAC1-4FB0-A412-5378CE0BAF9B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2393,19 +2548,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2429,9 +2580,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
